--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318.483915536502</v>
+        <v>2318.483915536553</v>
       </c>
     </row>
     <row r="7">
@@ -26323,7 +26325,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="F2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="G2" t="n">
         <v>30058.26294309333</v>
@@ -26335,13 +26337,13 @@
         <v>30058.26294309333</v>
       </c>
       <c r="J2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="K2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="L2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="M2" t="n">
         <v>30058.26294309333</v>
@@ -26522,7 +26524,7 @@
         <v>-22355.75139634001</v>
       </c>
       <c r="C6" t="n">
-        <v>-22355.75139634001</v>
+        <v>-22355.75139634</v>
       </c>
       <c r="D6" t="n">
         <v>-22355.75139634001</v>
@@ -26531,37 +26533,37 @@
         <v>11271.84860365999</v>
       </c>
       <c r="F6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="G6" t="n">
         <v>11271.84860365999</v>
       </c>
       <c r="H6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="I6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="J6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="K6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="L6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="M6" t="n">
         <v>11271.84860365999</v>
       </c>
       <c r="N6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="O6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
       <c r="P6" t="n">
-        <v>11271.84860365999</v>
+        <v>11271.84860366</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318.483915536553</v>
+        <v>-9625.74466553365</v>
       </c>
     </row>
     <row r="7">
@@ -26325,7 +26325,7 @@
         <v>30058.26294309333</v>
       </c>
       <c r="F2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="G2" t="n">
         <v>30058.26294309333</v>
@@ -26337,13 +26337,13 @@
         <v>30058.26294309333</v>
       </c>
       <c r="J2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="K2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="L2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="M2" t="n">
         <v>30058.26294309333</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22355.75139634001</v>
+        <v>-23783.34489048491</v>
       </c>
       <c r="C6" t="n">
-        <v>-22355.75139634</v>
+        <v>-23783.34489048491</v>
       </c>
       <c r="D6" t="n">
-        <v>-22355.75139634001</v>
+        <v>-23783.34489048491</v>
       </c>
       <c r="E6" t="n">
-        <v>11271.84860365999</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="F6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="G6" t="n">
-        <v>11271.84860365999</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="H6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="I6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="J6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="K6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="L6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="M6" t="n">
-        <v>11271.84860365999</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="N6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="O6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
       <c r="P6" t="n">
-        <v>11271.84860366</v>
+        <v>9844.255109515088</v>
       </c>
     </row>
   </sheetData>
